--- a/BackTest/2020-01-20 BackTest MXC.xlsx
+++ b/BackTest/2020-01-20 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2992,7 +2992,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-269845.8323552249</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>93551.11764477513</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3614235.859444775</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3613108.859444775</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3055916.592444775</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3862979.175644775</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>3151055.763744775</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3082491.125344775</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>3415871.871044775</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3498945.905744775</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3300473.253744775</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2730193.318544775</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2684275.159844775</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>2684275.159844775</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>2443539.534144775</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>2961791.952694471</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3894585.753194471</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2265812.505594471</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>2288859.457994471</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>2268209.457994471</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>2267057.680994471</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>2520394.843394471</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>2670930.249394471</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3031065.50379447</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3028565.50379447</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>3081944.55169447</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>2996376.04689447</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>2396892.61389447</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2396892.61389447</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2396592.55539447</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2396827.55539447</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2396827.55539447</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>2312677.41539447</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>2312677.41539447</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>2312912.41539447</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>2312912.41539447</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>2229827.24539447</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>2229827.24539447</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-6008608.662705529</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6008608.662705529</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-5713470.974305529</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5842026.304005529</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5821748.415105529</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-5821748.415105529</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-5821748.415105529</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-5862278.515105529</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5896168.415105529</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-5896688.415105529</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-5895735.752805529</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-6320498.931105529</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-6295814.451105529</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-5301307.990305528</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-6147012.701605528</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-6011299.853805528</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-6735512.195105528</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-6939269.258205528</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-7099405.125005528</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-5901093.575505529</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-6121107.284005528</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-6120305.524305528</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-6121477.196005528</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-6120305.764605528</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-5944214.123905527</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-5948676.148405528</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-5561140.492805528</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-4739402.285905528</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-4568579.077305527</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-3843544.435605527</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3863898.363405528</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-4250631.270205528</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4249075.270205528</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-4803567.904105528</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-4803101.459705528</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-7099873.634905528</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-7099873.634905528</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-7099873.634905528</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-7648357.124305527</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-6684734.576305527</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-6686435.141205527</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-6673410.526205527</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-6007855.401805527</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-2073107.514305527</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-2990098.897605527</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-2990098.897605527</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-2876273.407305527</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-2877665.407305527</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-2800194.184705527</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-2800194.184705527</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-2803543.496505527</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-2883635.655705527</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-2883635.655705527</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-3310066.523208157</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-5728293.812208157</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-3532398.599008157</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-3532398.599008157</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-3532398.599008157</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-3792398.599008157</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-4008725.247408157</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-3670939.071408157</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-3993804.448808157</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-2820849.638008157</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-2906590.646508157</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2873359.793708157</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2405135.608708157</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2483334.392508157</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>744105.1930918433</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>418159.5947918433</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-294705.8784081568</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>12880139.13191913</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>7400441.891519127</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>6587374.833319128</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>6914591.125319128</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>7225501.337919128</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>6815913.543819129</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>6814537.203119129</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>6769006.681419129</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>4189674.004419128</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>4069541.165619128</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-12531534.12368087</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-11866966.07288087</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-12293279.0534634</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-10814311.44450831</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-10812278.04480831</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-11186893.9258083</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-11186893.9258083</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-11342599.5267083</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-10898335.3724083</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-11927376.06930831</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-11885170.06930831</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-12109708.82670831</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-12099683.82670831</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-12493246.79840831</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-13997767.11710831</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-15947521.22690831</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-15838559.15346672</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-16025757.31956672</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-16025757.31956672</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-16025757.31956672</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-15687918.74756672</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-16113518.25976672</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-19151481.45996672</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-18277096.45996672</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-18477096.45996672</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-17912831.95846672</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-17912831.95846672</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -20416,10 +20416,14 @@
         <v>-47182827.30359967</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="J607" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
@@ -20449,11 +20453,19 @@
         <v>-48452295.91939967</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="J608" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20482,11 +20494,19 @@
         <v>-48318840.07599967</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="J609" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20515,11 +20535,19 @@
         <v>-47831895.83899967</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="J610" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20548,11 +20576,19 @@
         <v>-47831895.83899967</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J611" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +20617,19 @@
         <v>-48105330.11479966</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J612" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20614,11 +20658,19 @@
         <v>-48104800.32539967</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J613" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +20699,19 @@
         <v>-48765214.34679966</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="J614" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20680,11 +20740,19 @@
         <v>-48765214.34679966</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J615" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +20781,19 @@
         <v>-49209099.10839967</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J616" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +20822,19 @@
         <v>-49209099.10839967</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="J617" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +20863,19 @@
         <v>-49253322.83739967</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="J618" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +20904,19 @@
         <v>-49238931.84039967</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="J619" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +20945,19 @@
         <v>-50238076.35529967</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="J620" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +20986,19 @@
         <v>-50148849.08909967</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="J621" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +21027,19 @@
         <v>-50148849.08909967</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="J622" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21068,19 @@
         <v>-50026184.90129967</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="J623" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +21109,19 @@
         <v>-50026184.90129967</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J624" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21150,19 @@
         <v>-49828852.31703001</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J625" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +21191,19 @@
         <v>-49828852.31703001</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J626" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21232,19 @@
         <v>-49520666.57473001</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J627" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21273,19 @@
         <v>-49360666.57473001</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J628" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21314,19 @@
         <v>-49361813.49523001</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="J629" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +21355,19 @@
         <v>-49462625.49493001</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J630" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +21396,19 @@
         <v>-50618527.28373002</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J631" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21241,11 +21437,19 @@
         <v>-50680414.88993002</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="J632" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21274,11 +21478,19 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="J633" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +21519,19 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="J634" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21340,11 +21560,19 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="J635" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +21601,19 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="J636" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21406,11 +21642,19 @@
         <v>-52481481.28383002</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="J637" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21439,11 +21683,19 @@
         <v>-54061404.75253002</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J638" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,15 +21724,17 @@
         <v>-53747497.68893002</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I639" t="n">
         <v>1.73</v>
       </c>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L639" t="n">
@@ -21511,10 +21765,14 @@
         <v>-53747497.68893002</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="J640" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21548,12 +21806,14 @@
         <v>-53747497.68893002</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I641" t="n">
         <v>1.749</v>
       </c>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21587,10 +21847,14 @@
         <v>-53786319.68893002</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="J642" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21624,10 +21888,14 @@
         <v>-53904346.13923002</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="J643" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21661,10 +21929,14 @@
         <v>-52326300.24953002</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>1.716</v>
+      </c>
+      <c r="J644" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21698,10 +21970,14 @@
         <v>-52406300.24953002</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="J645" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21735,10 +22011,14 @@
         <v>-52418865.24953002</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="J646" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21772,12 +22052,14 @@
         <v>-52418865.24953002</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
         <v>1.735</v>
       </c>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21811,12 +22093,14 @@
         <v>-52418865.24953002</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>1.735</v>
       </c>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21850,12 +22134,14 @@
         <v>-52338865.24953002</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I649" t="n">
         <v>1.735</v>
       </c>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21889,12 +22175,14 @@
         <v>-52338865.24953002</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I650" t="n">
         <v>1.739</v>
       </c>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21928,12 +22216,14 @@
         <v>-52338865.24953002</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I651" t="n">
         <v>1.739</v>
       </c>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21967,12 +22257,14 @@
         <v>-52338865.24953002</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I652" t="n">
         <v>1.739</v>
       </c>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22006,12 +22298,14 @@
         <v>-52258865.24953002</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>1.739</v>
       </c>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22045,12 +22339,14 @@
         <v>-52258865.24953002</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I654" t="n">
         <v>1.74</v>
       </c>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22084,12 +22380,14 @@
         <v>-52258865.24953002</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655" t="n">
         <v>1.74</v>
       </c>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22123,12 +22421,14 @@
         <v>-51145950.68531452</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>1.74</v>
       </c>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22140,6 +22440,6 @@
       <c r="M656" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest MXC.xlsx
+++ b/BackTest/2020-01-20 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2365,7 +2365,7 @@
         <v>17111032.38898883</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>18051843.40838883</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>14744190.16725291</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>13786043.79985291</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>13325585.47155291</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>13509349.07345291</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>13987772.92665291</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>14203519.55665291</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>14260146.64365291</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>16832770.43945292</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>16832770.43945292</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1012974.531155225</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-440259.4632552249</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-269845.8323552249</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>215496.5319447751</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>93551.11764477513</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3614235.859444775</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3613108.859444775</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2684275.159844775</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>2684275.159844775</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>2443539.534144775</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>2961791.952694471</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3894585.753194471</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2265812.505594471</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>2288859.457994471</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>2670930.249394471</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1955523.919594471</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1772352.799394471</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>2917926.154494471</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>2917006.154494471</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>2880374.404494471</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>2543385.994694471</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3031065.50379447</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3028565.50379447</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>3081944.55169447</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>2996376.04689447</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>2396892.61389447</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2396892.61389447</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2396592.55539447</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2396827.55539447</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2396827.55539447</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>2312677.41539447</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>2312677.41539447</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>2312912.41539447</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>2312912.41539447</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>2229827.24539447</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>2229827.24539447</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-6008608.662705529</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6008608.662705529</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-5713470.974305529</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5842026.304005529</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5821748.415105529</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-5821748.415105529</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-5821748.415105529</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-5862278.515105529</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5896168.415105529</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-5896688.415105529</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-5895735.752805529</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-6320498.931105529</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-6295814.451105529</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-5301307.990305528</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-6147012.701605528</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-6011299.853805528</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-6939269.258205528</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-5901093.575505529</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-6120305.524305528</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-6121477.196005528</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-7099873.634905528</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-7102213.671305528</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-7142213.671305528</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-5728293.812208157</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-3532398.599008157</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-3532398.599008157</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-3792398.599008157</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-4008725.247408157</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-3670939.071408157</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-3993804.448808157</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-2820849.638008157</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-2906590.646508157</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2873359.793708157</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2405135.608708157</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2483334.392508157</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>744105.1930918433</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>418159.5947918433</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-11342599.5267083</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-10898335.3724083</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-11927376.06930831</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-11885170.06930831</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-12109708.82670831</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-12099683.82670831</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-12493246.79840831</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-13997767.11710831</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-15947521.22690831</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-15838559.15346672</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-16025757.31956672</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-16025757.31956672</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-15687918.74756672</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-19151481.45996672</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-18277096.45996672</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-18477096.45996672</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-17912831.95846672</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-17912831.95846672</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -20416,14 +20416,10 @@
         <v>-47182827.30359967</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J607" t="n">
-        <v>1.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
@@ -20453,429 +20449,353 @@
         <v>-48452295.91939967</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J608" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K608" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="C609" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="D609" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="E609" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F609" t="n">
+        <v>133455.8434</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-48318840.07599967</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="C610" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D610" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E610" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="F610" t="n">
+        <v>486944.237</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-47831895.83899967</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C611" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D611" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F611" t="n">
+        <v>77309.1652</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-47831895.83899967</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C612" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F612" t="n">
+        <v>273434.2758</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-48105330.11479966</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C613" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F613" t="n">
+        <v>529.7894</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-48104800.32539967</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C614" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F614" t="n">
+        <v>660414.0214</v>
+      </c>
+      <c r="G614" t="n">
+        <v>-48765214.34679966</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C615" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F615" t="n">
+        <v>9725.880999999999</v>
+      </c>
+      <c r="G615" t="n">
+        <v>-48765214.34679966</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C616" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="F616" t="n">
+        <v>443884.7616</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-49209099.10839967</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="C617" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="F617" t="n">
+        <v>303555.9375</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-49209099.10839967</v>
+      </c>
+      <c r="H617" t="n">
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="J617" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="F618" t="n">
+        <v>44223.729</v>
+      </c>
+      <c r="G618" t="n">
+        <v>-49253322.83739967</v>
+      </c>
+      <c r="H618" t="n">
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="J618" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="K618" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="C609" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="D609" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="E609" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="F609" t="n">
-        <v>133455.8434</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-48318840.07599967</v>
-      </c>
-      <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="J609" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="C610" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D610" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E610" t="n">
-        <v>1.734</v>
-      </c>
-      <c r="F610" t="n">
-        <v>486944.237</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-47831895.83899967</v>
-      </c>
-      <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="J610" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C611" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D611" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E611" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F611" t="n">
-        <v>77309.1652</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-47831895.83899967</v>
-      </c>
-      <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J611" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C612" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D612" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E612" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F612" t="n">
-        <v>273434.2758</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-48105330.11479966</v>
-      </c>
-      <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J612" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C613" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D613" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E613" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="F613" t="n">
-        <v>529.7894</v>
-      </c>
-      <c r="G613" t="n">
-        <v>-48104800.32539967</v>
-      </c>
-      <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J613" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C614" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="D614" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E614" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F614" t="n">
-        <v>660414.0214</v>
-      </c>
-      <c r="G614" t="n">
-        <v>-48765214.34679966</v>
-      </c>
-      <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="J614" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="C615" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="D615" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E615" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="F615" t="n">
-        <v>9725.880999999999</v>
-      </c>
-      <c r="G615" t="n">
-        <v>-48765214.34679966</v>
-      </c>
-      <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="J615" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C616" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="D616" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E616" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="F616" t="n">
-        <v>443884.7616</v>
-      </c>
-      <c r="G616" t="n">
-        <v>-49209099.10839967</v>
-      </c>
-      <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="J616" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="C617" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="D617" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="E617" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="F617" t="n">
-        <v>303555.9375</v>
-      </c>
-      <c r="G617" t="n">
-        <v>-49209099.10839967</v>
-      </c>
-      <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="J617" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="C618" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="D618" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="E618" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="F618" t="n">
-        <v>44223.729</v>
-      </c>
-      <c r="G618" t="n">
-        <v>-49253322.83739967</v>
-      </c>
-      <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="J618" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20910,7 +20830,7 @@
         <v>1.732</v>
       </c>
       <c r="J619" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -20951,7 +20871,7 @@
         <v>1.733</v>
       </c>
       <c r="J620" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -20992,7 +20912,7 @@
         <v>1.732</v>
       </c>
       <c r="J621" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21033,7 +20953,7 @@
         <v>1.736</v>
       </c>
       <c r="J622" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21074,7 +20994,7 @@
         <v>1.736</v>
       </c>
       <c r="J623" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21115,7 +21035,7 @@
         <v>1.77</v>
       </c>
       <c r="J624" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21156,7 +21076,7 @@
         <v>1.77</v>
       </c>
       <c r="J625" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21191,13 +21111,11 @@
         <v>-49828852.31703001</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>1.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21232,13 +21150,11 @@
         <v>-49520666.57473001</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>1.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21273,13 +21189,11 @@
         <v>-49360666.57473001</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>1.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21314,13 +21228,11 @@
         <v>-49361813.49523001</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>1.807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21355,13 +21267,11 @@
         <v>-49462625.49493001</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>1.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21396,13 +21306,11 @@
         <v>-50618527.28373002</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>1.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21437,13 +21345,11 @@
         <v>-50680414.88993002</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>1.777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21478,13 +21384,11 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>1.756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21519,13 +21423,11 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>1.755</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21560,13 +21462,11 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>1.755</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21607,7 +21507,7 @@
         <v>1.755</v>
       </c>
       <c r="J636" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21648,7 +21548,7 @@
         <v>1.755</v>
       </c>
       <c r="J637" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21683,13 +21583,11 @@
         <v>-54061404.75253002</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>1.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21730,7 +21628,7 @@
         <v>1.73</v>
       </c>
       <c r="J639" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21771,7 +21669,7 @@
         <v>1.749</v>
       </c>
       <c r="J640" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21812,7 +21710,7 @@
         <v>1.749</v>
       </c>
       <c r="J641" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21853,7 +21751,7 @@
         <v>1.749</v>
       </c>
       <c r="J642" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21894,7 +21792,7 @@
         <v>1.748</v>
       </c>
       <c r="J643" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21935,7 +21833,7 @@
         <v>1.716</v>
       </c>
       <c r="J644" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21976,7 +21874,7 @@
         <v>1.747</v>
       </c>
       <c r="J645" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -22017,7 +21915,7 @@
         <v>1.746</v>
       </c>
       <c r="J646" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22058,7 +21956,7 @@
         <v>1.735</v>
       </c>
       <c r="J647" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22099,7 +21997,7 @@
         <v>1.735</v>
       </c>
       <c r="J648" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22140,7 +22038,7 @@
         <v>1.735</v>
       </c>
       <c r="J649" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22181,7 +22079,7 @@
         <v>1.739</v>
       </c>
       <c r="J650" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22222,7 +22120,7 @@
         <v>1.739</v>
       </c>
       <c r="J651" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22263,7 +22161,7 @@
         <v>1.739</v>
       </c>
       <c r="J652" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22304,7 +22202,7 @@
         <v>1.739</v>
       </c>
       <c r="J653" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22345,7 +22243,7 @@
         <v>1.74</v>
       </c>
       <c r="J654" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22386,7 +22284,7 @@
         <v>1.74</v>
       </c>
       <c r="J655" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22427,7 +22325,7 @@
         <v>1.74</v>
       </c>
       <c r="J656" t="n">
-        <v>1.789</v>
+        <v>1.738</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22440,6 +22338,6 @@
       <c r="M656" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest MXC.xlsx
+++ b/BackTest/2020-01-20 BackTest MXC.xlsx
@@ -2365,7 +2365,7 @@
         <v>17111032.38898883</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>18051843.40838883</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>14744190.16725291</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>13786043.79985291</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>13325585.47155291</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>13509349.07345291</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>13987772.92665291</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>14203519.55665291</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>14260146.64365291</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>16832770.43945292</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>16832770.43945292</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1012974.531155225</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-440259.4632552249</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>93551.11764477513</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3614235.859444775</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3613108.859444775</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3055916.592444775</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3862979.175644775</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>3151055.763744775</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3082491.125344775</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>3415871.871044775</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3498945.905744775</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3300473.253744775</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2730193.318544775</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3894585.753194471</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2265812.505594471</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>2288859.457994471</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>2670930.249394471</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>2543385.994694471</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2917975.50379447</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>3032575.50379447</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3031065.50379447</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3028565.50379447</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>3081944.55169447</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2396892.61389447</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>2312677.41539447</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>2312912.41539447</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>2229827.24539447</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-7099873.634905528</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-7102213.671305528</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-7142213.671305528</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-2073107.514305527</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-2990098.897605527</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-2990098.897605527</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-2876273.407305527</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-2877665.407305527</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-2800194.184705527</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-2800194.184705527</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-2803543.496505527</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-2883635.655705527</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-2883635.655705527</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-3046236.474205527</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-3045839.650305527</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-3045839.650305527</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-3045839.650305527</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-2962095.641808157</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-3310066.523208157</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-3310066.523208157</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-5728293.812208157</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-3532398.599008157</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-3532398.599008157</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-3792398.599008157</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-4008725.247408157</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-3670939.071408157</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-3993804.448808157</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-2820849.638008157</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>6192307.134883432</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>12880139.13191913</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>7400441.891519127</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>6587374.833319128</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>6914591.125319128</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>7225501.337919128</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>6232822.122319128</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>5781111.974419128</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>6815913.543819129</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>6814537.203119129</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>6769006.681419129</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>4189674.004419128</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>4069541.165619128</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-12531534.12368087</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-11866966.07288087</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-12293279.0534634</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-16025757.31956672</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-16113518.25976672</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -20746,14 +20746,10 @@
         <v>-49209099.10839967</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="J617" t="n">
-        <v>1.738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
@@ -20783,101 +20779,83 @@
         <v>-49253322.83739967</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="J618" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="K618" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="C619" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="F619" t="n">
+        <v>14390.997</v>
+      </c>
+      <c r="G619" t="n">
+        <v>-49238931.84039967</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="F620" t="n">
+        <v>999144.5149</v>
+      </c>
+      <c r="G620" t="n">
+        <v>-50238076.35529967</v>
+      </c>
+      <c r="H620" t="n">
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="C619" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="D619" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="E619" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="F619" t="n">
-        <v>14390.997</v>
-      </c>
-      <c r="G619" t="n">
-        <v>-49238931.84039967</v>
-      </c>
-      <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="J619" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="C620" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="D620" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E620" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="F620" t="n">
-        <v>999144.5149</v>
-      </c>
-      <c r="G620" t="n">
-        <v>-50238076.35529967</v>
-      </c>
-      <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="J620" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20911,9 +20889,7 @@
       <c r="I621" t="n">
         <v>1.732</v>
       </c>
-      <c r="J621" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20952,9 +20928,7 @@
       <c r="I622" t="n">
         <v>1.736</v>
       </c>
-      <c r="J622" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20993,9 +20967,7 @@
       <c r="I623" t="n">
         <v>1.736</v>
       </c>
-      <c r="J623" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21034,9 +21006,7 @@
       <c r="I624" t="n">
         <v>1.77</v>
       </c>
-      <c r="J624" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21075,9 +21045,7 @@
       <c r="I625" t="n">
         <v>1.77</v>
       </c>
-      <c r="J625" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21111,12 +21079,12 @@
         <v>-49828852.31703001</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>1.738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21150,12 +21118,12 @@
         <v>-49520666.57473001</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>1.738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21189,12 +21157,12 @@
         <v>-49360666.57473001</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>1.738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21228,12 +21196,12 @@
         <v>-49361813.49523001</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>1.738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21267,12 +21235,12 @@
         <v>-49462625.49493001</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>1.738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21309,9 +21277,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21348,9 +21314,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21384,12 +21348,12 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>1.738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21423,12 +21387,12 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>1.738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21462,12 +21426,12 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>1.738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21506,9 +21470,7 @@
       <c r="I636" t="n">
         <v>1.755</v>
       </c>
-      <c r="J636" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21547,9 +21509,7 @@
       <c r="I637" t="n">
         <v>1.755</v>
       </c>
-      <c r="J637" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21583,12 +21543,12 @@
         <v>-54061404.75253002</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>1.738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21627,9 +21587,7 @@
       <c r="I639" t="n">
         <v>1.73</v>
       </c>
-      <c r="J639" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21668,9 +21626,7 @@
       <c r="I640" t="n">
         <v>1.749</v>
       </c>
-      <c r="J640" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21709,9 +21665,7 @@
       <c r="I641" t="n">
         <v>1.749</v>
       </c>
-      <c r="J641" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21750,9 +21704,7 @@
       <c r="I642" t="n">
         <v>1.749</v>
       </c>
-      <c r="J642" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21791,9 +21743,7 @@
       <c r="I643" t="n">
         <v>1.748</v>
       </c>
-      <c r="J643" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21832,9 +21782,7 @@
       <c r="I644" t="n">
         <v>1.716</v>
       </c>
-      <c r="J644" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21873,9 +21821,7 @@
       <c r="I645" t="n">
         <v>1.747</v>
       </c>
-      <c r="J645" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21914,9 +21860,7 @@
       <c r="I646" t="n">
         <v>1.746</v>
       </c>
-      <c r="J646" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21955,9 +21899,7 @@
       <c r="I647" t="n">
         <v>1.735</v>
       </c>
-      <c r="J647" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21996,9 +21938,7 @@
       <c r="I648" t="n">
         <v>1.735</v>
       </c>
-      <c r="J648" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22037,9 +21977,7 @@
       <c r="I649" t="n">
         <v>1.735</v>
       </c>
-      <c r="J649" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22078,9 +22016,7 @@
       <c r="I650" t="n">
         <v>1.739</v>
       </c>
-      <c r="J650" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22119,9 +22055,7 @@
       <c r="I651" t="n">
         <v>1.739</v>
       </c>
-      <c r="J651" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22160,9 +22094,7 @@
       <c r="I652" t="n">
         <v>1.739</v>
       </c>
-      <c r="J652" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22201,9 +22133,7 @@
       <c r="I653" t="n">
         <v>1.739</v>
       </c>
-      <c r="J653" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22242,9 +22172,7 @@
       <c r="I654" t="n">
         <v>1.74</v>
       </c>
-      <c r="J654" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22283,9 +22211,7 @@
       <c r="I655" t="n">
         <v>1.74</v>
       </c>
-      <c r="J655" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22324,9 +22250,7 @@
       <c r="I656" t="n">
         <v>1.74</v>
       </c>
-      <c r="J656" t="n">
-        <v>1.738</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
